--- a/kakeibo_function_matrix.xlsx
+++ b/kakeibo_function_matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee31402ec8028d41/ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{871D914D-85B5-446E-908D-C31608649790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{871D914D-85B5-446E-908D-C31608649790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD063EAA-1E6E-4C74-AA8A-EB6C158D8C94}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="16332" windowHeight="10488" xr2:uid="{F6E29FCC-30DA-4F1E-B279-D79EA1C6A9D8}"/>
+    <workbookView xWindow="2808" yWindow="2712" windowWidth="16332" windowHeight="10488" xr2:uid="{F6E29FCC-30DA-4F1E-B279-D79EA1C6A9D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -102,76 +102,132 @@
     <t>登録済ユーザーを表示</t>
   </si>
   <si>
+    <t>管理者</t>
+  </si>
+  <si>
+    <t>収支入力</t>
+  </si>
+  <si>
+    <t>収入・支出データを入力</t>
+  </si>
+  <si>
+    <t>日付・金額・カテゴリ・メモ</t>
+  </si>
+  <si>
+    <t>収支編集</t>
+  </si>
+  <si>
+    <t>登録済データを修正</t>
+  </si>
+  <si>
+    <t>収支削除</t>
+  </si>
+  <si>
+    <t>収支データを削除</t>
+  </si>
+  <si>
+    <t>収支一覧表示</t>
+  </si>
+  <si>
+    <t>登録済データを一覧表示</t>
+  </si>
+  <si>
+    <t>日付・金額・カテゴリ</t>
+  </si>
+  <si>
+    <t>グラフ表示</t>
+  </si>
+  <si>
+    <t>月別・カテゴリ別で可視化</t>
+  </si>
+  <si>
+    <t>収支情報</t>
+  </si>
+  <si>
+    <t>チャレンジ要素</t>
+  </si>
+  <si>
+    <t>目標金額設定</t>
+  </si>
+  <si>
+    <t>月ごとの支出目標を設定</t>
+  </si>
+  <si>
+    <t>月・金額</t>
+  </si>
+  <si>
+    <t>達成状況表示</t>
+  </si>
+  <si>
+    <t>目標に対する進捗を表示</t>
+  </si>
+  <si>
+    <t>目標金額・実績</t>
+  </si>
+  <si>
+    <t>進捗判定</t>
+  </si>
+  <si>
+    <t>目標達成かどうか判定</t>
+  </si>
+  <si>
+    <t>管理者・利用者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーを編集する</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーを削除する</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者がユーザー情報を編集する</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者がユーザー情報を削除する</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ユーザーID・名前・種別</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>管理者</t>
-  </si>
-  <si>
-    <t>収支入力</t>
-  </si>
-  <si>
-    <t>収入・支出データを入力</t>
-  </si>
-  <si>
-    <t>日付・金額・カテゴリ・メモ</t>
-  </si>
-  <si>
-    <t>収支編集</t>
-  </si>
-  <si>
-    <t>登録済データを修正</t>
-  </si>
-  <si>
-    <t>収支削除</t>
-  </si>
-  <si>
-    <t>収支データを削除</t>
-  </si>
-  <si>
-    <t>収支一覧表示</t>
-  </si>
-  <si>
-    <t>登録済データを一覧表示</t>
-  </si>
-  <si>
-    <t>日付・金額・カテゴリ</t>
-  </si>
-  <si>
-    <t>グラフ表示</t>
-  </si>
-  <si>
-    <t>月別・カテゴリ別で可視化</t>
-  </si>
-  <si>
-    <t>収支情報</t>
-  </si>
-  <si>
-    <t>チャレンジ要素</t>
-  </si>
-  <si>
-    <t>目標金額設定</t>
-  </si>
-  <si>
-    <t>月ごとの支出目標を設定</t>
-  </si>
-  <si>
-    <t>月・金額</t>
-  </si>
-  <si>
-    <t>達成状況表示</t>
-  </si>
-  <si>
-    <t>目標に対する進捗を表示</t>
-  </si>
-  <si>
-    <t>目標金額・実績</t>
-  </si>
-  <si>
-    <t>進捗判定</t>
-  </si>
-  <si>
-    <t>目標達成かどうか判定</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -535,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CF924F-9441-4F8A-B32A-8A32D30D7D76}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -634,7 +690,7 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -665,10 +721,10 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
         <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -676,16 +732,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -693,16 +749,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -710,16 +766,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -727,16 +783,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -744,19 +800,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -764,13 +817,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -781,16 +834,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -798,16 +854,50 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
